--- a/chiloPro/common/authors.xlsx
+++ b/chiloPro/common/authors.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="日置慎治" sheetId="6" r:id="rId1"/>
+    <sheet name="sample-series" sheetId="6" r:id="rId1"/>
     <sheet name="author" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -829,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -956,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>

--- a/chiloPro/common/authors.xlsx
+++ b/chiloPro/common/authors.xlsx
@@ -5,15 +5,15 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer\chiloPro\common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\office_help2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="9510" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="sample-series" sheetId="6" r:id="rId1"/>
-    <sheet name="author" sheetId="7" r:id="rId2"/>
+    <sheet name="sample" sheetId="6" r:id="rId1"/>
+    <sheet name="Template" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,30 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>picture</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>organization</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【専門分野】</t>
-    <rPh sb="1" eb="3">
-      <t>センモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブンヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【研究キーワード】</t>
-    <rPh sb="1" eb="3">
-      <t>ケンキュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -99,33 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>組織</t>
-    <rPh sb="0" eb="2">
-      <t>ソシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学位等</t>
-    <rPh sb="0" eb="2">
-      <t>ガクイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロフィール（250文字程度）</t>
-    <rPh sb="10" eb="12">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（必須）名前</t>
     <rPh sb="1" eb="3">
       <t>ヒッス</t>
@@ -136,16 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>研究分野</t>
-    <rPh sb="0" eb="2">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>研究キーワード</t>
     <rPh sb="0" eb="2">
       <t>ケンキュウ</t>
@@ -153,13 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>写真</t>
-    <rPh sb="0" eb="2">
-      <t>シャシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ローマ字の名前等</t>
     <rPh sb="3" eb="4">
       <t>ジ</t>
@@ -209,42 +148,62 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>記載しない場合は、何も表示されません。</t>
-    <rPh sb="9" eb="10">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目の追加・削除が可能です。
-記載しない場合、項目名のみが残ります。</t>
+    <t>所属、プロフィール、学位、研究分野など必要項目のタイトルをA列に明記し、その内容を記載してください。</t>
     <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガクイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ケンキュウブンヤ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ヒツヨウコウモク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記載しない場合は、表示されません。</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ノコ</t>
-    </rPh>
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>略歴</t>
+    <rPh sb="0" eb="2">
+      <t>リャクレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>専門分野</t>
+    <rPh sb="0" eb="4">
+      <t>センモンブンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Author's photo / 著者の写真</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -328,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -354,70 +313,130 @@
     <border>
       <left/>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,8 +450,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -456,9 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -471,14 +491,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -486,6 +529,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -829,6 +874,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="50.625" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -840,225 +1007,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C4:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="50.625" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D5:D8"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/chiloPro/common/authors.xlsx
+++ b/chiloPro/common/authors.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\office_help2\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer\chiloPro\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="9510" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11070" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>picture</t>
     <phoneticPr fontId="1"/>
@@ -82,16 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（必須）名前</t>
-    <rPh sb="1" eb="3">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>研究キーワード</t>
     <rPh sb="0" eb="2">
       <t>ケンキュウ</t>
@@ -99,96 +89,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ローマ字の名前等</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>両方入力すると、 name /name2 の形式で表示されます。</t>
-    <rPh sb="0" eb="2">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記載しない場合は、何も表示されません。</t>
-    <rPh sb="0" eb="2">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>著者の写真</t>
-    <rPh sb="0" eb="2">
-      <t>チョシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シャシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属、プロフィール、学位、研究分野など必要項目のタイトルをA列に明記し、その内容を記載してください。</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガクイ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ケンキュウブンヤ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>ヒツヨウコウモク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>メイキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記載しない場合は、表示されません。</t>
-    <rPh sb="0" eb="2">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>略歴</t>
     <rPh sb="0" eb="2">
       <t>リャクレキ</t>
@@ -204,6 +104,86 @@
   </si>
   <si>
     <t>Author's photo / 著者の写真</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(Required) Name / （必須）名前 </t>
+    <rPh sb="19" eb="21">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Additional Name / ローマ字の名前等</t>
+    <rPh sb="21" eb="22">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No input, remains blank / 記載しない場合は、何も表示されません。</t>
+    <rPh sb="26" eb="28">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enter both, displays as name/name2. / 両方入力すると、 name/name2 の形式で表示されます。</t>
+    <rPh sb="38" eb="40">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Write in title of required items such as profile, status, research fields, etc. on column A and its contents on column B / 所属、プロフィール、学位、研究分野など必要項目のタイトルをA列に明記し、その内容をB列に記載してください。</t>
+    <rPh sb="123" eb="125">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ガクイ</t>
+    </rPh>
+    <rPh sb="136" eb="140">
+      <t>ケンキュウブンヤ</t>
+    </rPh>
+    <rPh sb="142" eb="146">
+      <t>ヒツヨウコウモク</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>キサイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -287,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -368,15 +348,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="hair">
         <color auto="1"/>
@@ -455,7 +426,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -466,13 +437,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -497,9 +464,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -509,8 +473,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -880,95 +847,95 @@
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="50.625" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="3" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="11"/>
+      <c r="C3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>21</v>
+      <c r="A6" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
+      <c r="A7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
+      <c r="A8" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -996,81 +963,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C1:D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="50.625" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="11"/>
+      <c r="C3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="16"/>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/chiloPro/common/authors.xlsx
+++ b/chiloPro/common/authors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11070" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11070" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>picture</t>
     <phoneticPr fontId="1"/>
@@ -184,6 +184,10 @@
     <rPh sb="167" eb="169">
       <t>キサイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ogranization</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -449,6 +453,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -458,12 +468,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -472,12 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -841,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -858,10 +862,10 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -872,10 +876,10 @@
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -886,10 +890,10 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -898,10 +902,10 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
@@ -910,8 +914,8 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
@@ -920,8 +924,8 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
@@ -930,8 +934,8 @@
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
@@ -940,8 +944,8 @@
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -963,9 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C1:D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -980,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -992,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1004,42 +1006,44 @@
         <v>4</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/chiloPro/common/authors.xlsx
+++ b/chiloPro/common/authors.xlsx
@@ -187,7 +187,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ogranization</t>
+    <t>organization</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -845,7 +845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -897,7 +899,7 @@
     </row>
     <row r="4" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -967,7 +969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1013,7 +1017,7 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">

--- a/chiloPro/common/authors.xlsx
+++ b/chiloPro/common/authors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11070" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11070" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>picture</t>
     <phoneticPr fontId="1"/>
@@ -35,71 +35,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学位</t>
-    <rPh sb="0" eb="2">
-      <t>ガクイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>name2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>001_photo.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日置　慎治</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HIOKI, Shinji</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>帝塚山大学経営学部教授</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>博士（工学）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大阪大学基礎工学研究科数理専攻博士後期課程修了。工学博士。 広島大学理学部助手等を経て、現在、帝塚山大学経営学部教授、学部長。ゴードン・ベル賞受賞（1995）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物理学 / 素粒子・原子核・宇宙線・宇宙物理 / 情報学 / 図書館情報学・人文社会情報学 /</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シミュレーション(292) , 格子QCD(4) , 数値シミュレ-ション(94) , ハドロン(12) , 並列計算(50) , 有限温度質量(1) , 質量移行(1) , ハイパフォ-マンス(1) , ハイパフォ-マンスコンピュ-ティング(20) , ス-パ-コンピュ-タ(11) , 有限温度(2) , クオ-ク・グル-ホン・プラズマ(1) , 質量(6) , トポロジ-(44) , 格子色力学(QCD)(1) , モンテカルロシミュレ-ション(25) , 人口(29) , グルーオン(5) , インターネット(219) , 江戸時代(19)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究キーワード</t>
-    <rPh sb="0" eb="2">
-      <t>ケンキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>略歴</t>
-    <rPh sb="0" eb="2">
-      <t>リャクレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>専門分野</t>
-    <rPh sb="0" eb="4">
-      <t>センモンブンヤ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -188,6 +128,14 @@
   </si>
   <si>
     <t>organization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Masumi Hori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>015_photo.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -845,9 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -862,90 +808,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
     </row>
@@ -969,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -987,31 +913,31 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D3" s="11"/>
     </row>
@@ -1021,7 +947,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D4" s="13"/>
     </row>

--- a/chiloPro/common/authors.xlsx
+++ b/chiloPro/common/authors.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer\chiloPro\common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11070" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11070" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sample" sheetId="6" r:id="rId1"/>
+    <sheet name="日置慎治" sheetId="10" r:id="rId1"/>
     <sheet name="Template" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>picture</t>
     <phoneticPr fontId="1"/>
@@ -127,22 +127,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>organization</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Masumi Hori</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>015_photo.jpg</t>
+    <t>001_photo.png</t>
+  </si>
+  <si>
+    <t>HIOKI, Shinji</t>
+  </si>
+  <si>
+    <t>帝塚山大学経営学部教授</t>
+  </si>
+  <si>
+    <t>博士（工学）</t>
+  </si>
+  <si>
+    <t>学位</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪大学基礎工学研究科数理専攻博士後期課程修了。工学博士。 広島大学理学部助手等を経て、現在、帝塚山大学経営学部教授、学部長。ゴードン・ベル賞受賞（1995）</t>
+  </si>
+  <si>
+    <t>物理学 / 素粒子・原子核・宇宙線・宇宙物理 / 情報学 / 図書館情報学・人文社会情報学</t>
+  </si>
+  <si>
+    <t>シミュレーション(292) , 格子QCD(4) , 数値シミュレ-ション(94) , ハドロン(12) , 並列計算(50) , 有限温度質量(1) , 質量移行(1) , ハイパフォ-マンス(1) , ハイパフォ-マンスコンピュ-ティング(20) , ス-パ-コンピュ-タ(11) , 有限温度(2) , クオ-ク・グル-ホン・プラズマ(1) , 質量(6) , トポロジ-(44) , 格子色力学(QCD)(1) , モンテカルロシミュレ-ション(25) , 人口(29) , グルーオン(5) , インターネット(219) , 江戸時代(19)</t>
+  </si>
+  <si>
+    <t>【専門分野】</t>
+    <rPh sb="1" eb="3">
+      <t>センモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【研究キーワード】</t>
+    <rPh sb="1" eb="3">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日置 慎治</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -793,7 +827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -808,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>4</v>
@@ -822,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -835,7 +871,9 @@
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
@@ -843,35 +881,51 @@
     </row>
     <row r="4" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
     </row>
@@ -883,11 +937,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -895,9 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
